--- a/Sprint Backlog/SprintBacklog.xlsx
+++ b/Sprint Backlog/SprintBacklog.xlsx
@@ -19,6 +19,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="colorList">[1]Sheet1!$P$2:$P$4</definedName>
+    <definedName name="colorList2">Sheet1!$N$3:$N$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="75">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -294,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +305,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,235 +347,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill>
@@ -1428,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,17 +1235,22 @@
     <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1490,8 +1287,11 @@
       <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1528,8 +1328,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1567,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1605,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1681,15 +1484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1697,8 +1503,20 @@
       <c r="F10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1714,8 +1532,20 @@
       <c r="F11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1731,8 +1561,20 @@
       <c r="F12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1754,16 +1596,28 @@
       <c r="G13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1771,8 +1625,20 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1788,8 +1654,20 @@
       <c r="F15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1809,6 +1687,15 @@
         <v>1</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
     </row>
@@ -1834,6 +1721,21 @@
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1936,6 +1838,18 @@
       <c r="H24">
         <v>0</v>
       </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1962,6 +1876,18 @@
       <c r="H25">
         <v>0</v>
       </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1988,6 +1914,18 @@
       <c r="H26">
         <v>0</v>
       </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -2011,6 +1949,12 @@
       <c r="H27">
         <v>2</v>
       </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -2072,6 +2016,21 @@
       <c r="G32">
         <v>0</v>
       </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -2089,6 +2048,18 @@
       <c r="F33">
         <v>4</v>
       </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -2106,6 +2077,18 @@
       <c r="F34">
         <v>5</v>
       </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -2123,6 +2106,18 @@
       <c r="F35">
         <v>2</v>
       </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -2140,6 +2135,18 @@
       <c r="F36">
         <v>4</v>
       </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2157,6 +2164,18 @@
       <c r="F37">
         <v>4</v>
       </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38">
@@ -2176,6 +2195,15 @@
       </c>
       <c r="G38">
         <v>5</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2349,6 +2377,18 @@
       <c r="F44">
         <v>2</v>
       </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -2369,6 +2409,18 @@
       <c r="F45">
         <v>1</v>
       </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -2386,6 +2438,18 @@
       <c r="F46">
         <v>6</v>
       </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -2488,6 +2552,12 @@
       <c r="H49">
         <v>2</v>
       </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -2514,6 +2584,12 @@
       <c r="H50">
         <v>6</v>
       </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -2578,6 +2654,12 @@
       <c r="H52">
         <v>1</v>
       </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -2604,6 +2686,18 @@
       <c r="H53">
         <v>0</v>
       </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -2803,9 +2897,6 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
-      </c>
-      <c r="B60">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3222,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D18 D41:D58 D32:D39 D24:D27">
-      <formula1>colorList</formula1>
+      <formula1>colorList2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sprint Backlog/SprintBacklog.xlsx
+++ b/Sprint Backlog/SprintBacklog.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Robert</t>
   </si>
   <si>
-    <t>Futher information page layout</t>
-  </si>
-  <si>
     <t>Liu</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Search in the glossary</t>
   </si>
   <si>
-    <t>Order glossary by catergory</t>
-  </si>
-  <si>
     <t>Pinch zoom images</t>
   </si>
   <si>
@@ -256,6 +250,12 @@
   </si>
   <si>
     <t>Mark,Kari</t>
+  </si>
+  <si>
+    <t>Ewan,Mark</t>
+  </si>
+  <si>
+    <t>Further information page layout</t>
   </si>
 </sst>
 </file>
@@ -354,35 +354,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill>
@@ -1220,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,7 +1219,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1288,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1372,13 +1344,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -1410,13 +1382,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -1448,13 +1420,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -1486,16 +1458,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1514,17 +1486,23 @@
       </c>
       <c r="J10">
         <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1543,17 +1521,26 @@
       </c>
       <c r="J11">
         <v>6</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1572,20 +1559,26 @@
       </c>
       <c r="J12">
         <v>4</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1605,10 +1598,13 @@
       <c r="J13">
         <v>3</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1617,7 +1613,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1637,34 +1633,43 @@
       <c r="J14">
         <v>1</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1675,48 +1680,54 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1737,100 +1748,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>6</v>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1853,25 +1864,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1891,107 +1902,113 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>6</v>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1999,287 +2016,311 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>4</v>
-      </c>
-      <c r="J37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38">
-        <v>5</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>6</v>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2287,760 +2328,721 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
         <v>53</v>
       </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
+      <c r="B43">
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
-      <c r="G46">
-        <v>6</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>6</v>
-      </c>
-      <c r="J46">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L46" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" t="s">
-        <v>51</v>
-      </c>
-      <c r="L48" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
-      <c r="G50">
-        <v>6</v>
-      </c>
-      <c r="H50">
-        <v>6</v>
-      </c>
-      <c r="I50">
-        <v>6</v>
-      </c>
-      <c r="J50">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" t="s">
+        <v>49</v>
+      </c>
+      <c r="K50" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" t="s">
-        <v>51</v>
-      </c>
-      <c r="K51" t="s">
-        <v>51</v>
-      </c>
-      <c r="L51" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" t="s">
+        <v>49</v>
+      </c>
+      <c r="L53" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" t="s">
+        <v>49</v>
+      </c>
+      <c r="L57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" t="s">
-        <v>51</v>
-      </c>
-      <c r="H57" t="s">
-        <v>51</v>
-      </c>
-      <c r="I57" t="s">
-        <v>51</v>
-      </c>
-      <c r="J57" t="s">
-        <v>51</v>
-      </c>
-      <c r="K57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>70</v>
       </c>
-      <c r="B58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58" t="s">
-        <v>51</v>
-      </c>
-      <c r="H58" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" t="s">
-        <v>51</v>
-      </c>
-      <c r="J58" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58" t="s">
-        <v>51</v>
-      </c>
-      <c r="L58" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>72</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="Done">
+  <conditionalFormatting sqref="D5 D15:D16">
+    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+  <conditionalFormatting sqref="D5 D15:D16">
+    <cfRule type="cellIs" dxfId="72" priority="77" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="70" priority="75" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="69" priority="76" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="65" priority="72" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="69" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="57" priority="64" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="53" priority="60" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="46" priority="51" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D17">
-    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="40" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D17">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3076,152 +3078,152 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D17">
     <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+      <formula>NOT(ISERROR(SEARCH("To Do",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D31">
     <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+      <formula>NOT(ISERROR(SEARCH("To Do",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D58">
+  <conditionalFormatting sqref="D40:D57">
     <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D58">
+      <formula>NOT(ISERROR(SEARCH("To Do",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D57">
     <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D37">
+  <conditionalFormatting sqref="D32:D36">
     <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D37">
+      <formula>NOT(ISERROR(SEARCH("To Do",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D36">
     <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+  <conditionalFormatting sqref="D37:D38">
     <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+      <formula>NOT(ISERROR(SEARCH("To Do",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D38">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D23">
     <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+      <formula>NOT(ISERROR(SEARCH("To Do",D23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D24">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+      <formula>NOT(ISERROR(SEARCH("To Do",D24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D25">
     <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+      <formula>NOT(ISERROR(SEARCH("To Do",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D26">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+      <formula>NOT(ISERROR(SEARCH("To Do",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D18 D41:D58 D32:D39 D24:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D57 D31:D38 D23:D26 D5:D17">
       <formula1>colorList2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint Backlog/SprintBacklog.xlsx
+++ b/Sprint Backlog/SprintBacklog.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="75">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1467,7 +1467,7 @@
         <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1488,7 +1488,10 @@
         <v>2</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -2438,8 +2441,11 @@
       <c r="B45">
         <v>6</v>
       </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
       <c r="D45" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -2458,6 +2464,12 @@
       </c>
       <c r="J45">
         <v>6</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2543,9 +2555,6 @@
       <c r="B48">
         <v>2</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
       <c r="D48" s="4" t="s">
         <v>23</v>
       </c>
@@ -2565,6 +2574,9 @@
         <v>2</v>
       </c>
       <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
         <v>2</v>
       </c>
     </row>
@@ -2575,9 +2587,6 @@
       <c r="B49">
         <v>6</v>
       </c>
-      <c r="C49">
-        <v>6</v>
-      </c>
       <c r="D49" s="4" t="s">
         <v>23</v>
       </c>
@@ -2597,6 +2606,9 @@
         <v>6</v>
       </c>
       <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49">
         <v>6</v>
       </c>
     </row>

--- a/Sprint Backlog/SprintBacklog.xlsx
+++ b/Sprint Backlog/SprintBacklog.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="76">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Place Lesleys videos in the app this includes compression</t>
   </si>
   <si>
-    <t>2) An expert system to diagnose potato disease symptoms</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -256,6 +253,12 @@
   </si>
   <si>
     <t>Further information page layout</t>
+  </si>
+  <si>
+    <t>Kari,Mark</t>
+  </si>
+  <si>
+    <t>3) An expert system to diagnose potato disease symptoms</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,6 +1208,7 @@
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1344,7 +1348,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1464,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
@@ -1502,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
@@ -1540,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -1578,10 +1582,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1603,6 +1607,9 @@
       </c>
       <c r="K13">
         <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1639,6 +1646,9 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1651,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1673,6 +1683,9 @@
       </c>
       <c r="K15">
         <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1905,16 +1918,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1937,10 +1950,13 @@
       <c r="K26">
         <v>1</v>
       </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>3</v>
@@ -1958,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -1978,13 +1994,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>15</v>
@@ -2016,16 +2032,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -2047,11 +2063,14 @@
       </c>
       <c r="K32">
         <v>4</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -2080,10 +2099,13 @@
       <c r="K33">
         <v>5</v>
       </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2112,10 +2134,13 @@
       <c r="K34">
         <v>2</v>
       </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2144,10 +2169,13 @@
       <c r="K35">
         <v>4</v>
       </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2176,13 +2204,16 @@
       <c r="K36">
         <v>4</v>
       </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>15</v>
@@ -2214,7 +2245,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>3</v>
@@ -2232,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>9</v>
@@ -2252,130 +2283,130 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
         <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2397,20 +2428,23 @@
       </c>
       <c r="K43">
         <v>2</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2433,10 +2467,13 @@
       <c r="K44">
         <v>1</v>
       </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2474,89 +2511,92 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
       <c r="D48" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2577,18 +2617,24 @@
         <v>2</v>
       </c>
       <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
       <c r="D49" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -2610,49 +2656,52 @@
       </c>
       <c r="K49">
         <v>6</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -2690,7 +2739,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2728,10 +2777,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -2740,36 +2789,36 @@
         <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -2778,155 +2827,179 @@
         <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58">
+        <v>116</v>
+      </c>
+      <c r="E58">
+        <v>92</v>
+      </c>
+      <c r="F58">
+        <v>82</v>
+      </c>
+      <c r="G58">
         <v>69</v>
       </c>
-      <c r="B58">
-        <v>110</v>
+      <c r="H58">
+        <v>66</v>
+      </c>
+      <c r="I58">
+        <v>66</v>
+      </c>
+      <c r="J58">
+        <v>59</v>
+      </c>
+      <c r="K58">
+        <v>34</v>
+      </c>
+      <c r="L58">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint Backlog/SprintBacklog.xlsx
+++ b/Sprint Backlog/SprintBacklog.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="75">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -141,6 +141,9 @@
     <t>Place Lesleys videos in the app this includes compression</t>
   </si>
   <si>
+    <t>2) An expert system to diagnose potato disease symptoms</t>
+  </si>
+  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -253,12 +256,6 @@
   </si>
   <si>
     <t>Further information page layout</t>
-  </si>
-  <si>
-    <t>Kari,Mark</t>
-  </si>
-  <si>
-    <t>3) An expert system to diagnose potato disease symptoms</t>
   </si>
 </sst>
 </file>
@@ -1197,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,7 +1205,6 @@
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1348,7 +1344,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1468,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
@@ -1506,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
@@ -1544,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -1582,10 +1578,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1607,9 +1603,6 @@
       </c>
       <c r="K13">
         <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1646,9 +1639,6 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1661,7 +1651,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1683,9 +1673,6 @@
       </c>
       <c r="K15">
         <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1918,16 +1905,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1950,13 +1937,10 @@
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>3</v>
@@ -1974,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -1994,13 +1978,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>15</v>
@@ -2032,16 +2016,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -2063,14 +2047,11 @@
       </c>
       <c r="K32">
         <v>4</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -2099,13 +2080,10 @@
       <c r="K33">
         <v>5</v>
       </c>
-      <c r="L33">
-        <v>5</v>
-      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2134,13 +2112,10 @@
       <c r="K34">
         <v>2</v>
       </c>
-      <c r="L34">
-        <v>2</v>
-      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2169,13 +2144,10 @@
       <c r="K35">
         <v>4</v>
       </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2204,16 +2176,13 @@
       <c r="K36">
         <v>4</v>
       </c>
-      <c r="L36">
-        <v>4</v>
-      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>15</v>
@@ -2245,7 +2214,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>3</v>
@@ -2263,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>9</v>
@@ -2283,130 +2252,130 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
         <v>53</v>
       </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2428,23 +2397,20 @@
       </c>
       <c r="K43">
         <v>2</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2467,13 +2433,10 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2511,92 +2474,89 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2617,24 +2577,18 @@
         <v>2</v>
       </c>
       <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -2656,52 +2610,49 @@
       </c>
       <c r="K49">
         <v>6</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -2739,7 +2690,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2777,10 +2728,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -2789,36 +2740,36 @@
         <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -2827,179 +2778,155 @@
         <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58">
-        <v>116</v>
-      </c>
-      <c r="E58">
-        <v>92</v>
-      </c>
-      <c r="F58">
-        <v>82</v>
-      </c>
-      <c r="G58">
-        <v>69</v>
-      </c>
-      <c r="H58">
-        <v>66</v>
-      </c>
-      <c r="I58">
-        <v>66</v>
-      </c>
-      <c r="J58">
-        <v>59</v>
-      </c>
-      <c r="K58">
-        <v>34</v>
-      </c>
-      <c r="L58">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
